--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,7 +419,41 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="28" customWidth="1" min="7" max="7"/>
+    <col width="28" customWidth="1" min="8" max="8"/>
+    <col width="28" customWidth="1" min="9" max="9"/>
+    <col width="28" customWidth="1" min="10" max="10"/>
+    <col width="28" customWidth="1" min="11" max="11"/>
+    <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="28" customWidth="1" min="13" max="13"/>
+    <col width="28" customWidth="1" min="14" max="14"/>
+    <col width="28" customWidth="1" min="15" max="15"/>
+    <col width="28" customWidth="1" min="16" max="16"/>
+    <col width="28" customWidth="1" min="17" max="17"/>
+    <col width="28" customWidth="1" min="18" max="18"/>
+    <col width="28" customWidth="1" min="19" max="19"/>
+    <col width="28" customWidth="1" min="20" max="20"/>
+    <col width="28" customWidth="1" min="21" max="21"/>
+    <col width="28" customWidth="1" min="22" max="22"/>
+    <col width="28" customWidth="1" min="23" max="23"/>
+    <col width="28" customWidth="1" min="24" max="24"/>
+    <col width="28" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
+    <col width="28" customWidth="1" min="29" max="29"/>
+    <col width="28" customWidth="1" min="30" max="30"/>
+    <col width="28" customWidth="1" min="31" max="31"/>
+    <col width="28" customWidth="1" min="32" max="32"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -556,8 +587,10 @@
           <t>Sabina Sobirovna</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2111796525</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2111796525:</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -578,17 +611,15 @@
           <t>Sharifjon Mo`minov</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>5172746353</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Keldi2023-02-18 23:59:01.159000
-Ketdi: 2023-02-18 23:59:03.680518</t>
-        </is>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>44975.99931896991</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5172746353:</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Keldi: 15:11:32 Ketdi: 15:11:38</t>
+        </is>
       </c>
     </row>
     <row r="7">

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -1,34 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momin\Desktop\fl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="19">
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>Umarjonov Ulug'bek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49257001: </t>
+  </si>
+  <si>
+    <t>Tulaboyev Zafar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10414033: </t>
+  </si>
+  <si>
+    <t>Sabina Sobirovna</t>
+  </si>
+  <si>
+    <t>2111796525:</t>
+  </si>
+  <si>
+    <t>Quranboyev Jasur</t>
+  </si>
+  <si>
+    <t>328628941:</t>
+  </si>
+  <si>
+    <t>Sharifjon Mo`minov</t>
+  </si>
+  <si>
+    <t>5172746353:</t>
+  </si>
+  <si>
+    <t>Shanazarov Abdullo</t>
+  </si>
+  <si>
+    <t>520754113:</t>
+  </si>
+  <si>
+    <t>Habibullayev Axtam</t>
+  </si>
+  <si>
+    <t>524697244:</t>
+  </si>
+  <si>
+    <t>Сматуллаев Ербол</t>
+  </si>
+  <si>
+    <t>322626456:</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +112,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,266 +414,899 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="28" customWidth="1" min="6" max="6"/>
-    <col width="28" customWidth="1" min="7" max="7"/>
-    <col width="28" customWidth="1" min="8" max="8"/>
-    <col width="28" customWidth="1" min="9" max="9"/>
-    <col width="28" customWidth="1" min="10" max="10"/>
-    <col width="28" customWidth="1" min="11" max="11"/>
-    <col width="28" customWidth="1" min="12" max="12"/>
-    <col width="28" customWidth="1" min="13" max="13"/>
-    <col width="28" customWidth="1" min="14" max="14"/>
-    <col width="28" customWidth="1" min="15" max="15"/>
-    <col width="28" customWidth="1" min="16" max="16"/>
-    <col width="28" customWidth="1" min="17" max="17"/>
-    <col width="28" customWidth="1" min="18" max="18"/>
-    <col width="28" customWidth="1" min="19" max="19"/>
-    <col width="28" customWidth="1" min="20" max="20"/>
-    <col width="28" customWidth="1" min="21" max="21"/>
-    <col width="28" customWidth="1" min="22" max="22"/>
-    <col width="28" customWidth="1" min="23" max="23"/>
-    <col width="28" customWidth="1" min="24" max="24"/>
-    <col width="28" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
-    <col width="28" customWidth="1" min="28" max="28"/>
-    <col width="28" customWidth="1" min="29" max="29"/>
-    <col width="28" customWidth="1" min="30" max="30"/>
-    <col width="28" customWidth="1" min="31" max="31"/>
-    <col width="28" customWidth="1" min="32" max="32"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="32" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Developers</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="I1" t="n">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="K1" t="n">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="L1" t="n">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="M1" t="n">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="N1" t="n">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1" t="n">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" t="n">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" t="n">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" t="n">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1" t="n">
-        <v>18</v>
-      </c>
-      <c r="T1" t="n">
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="U1" t="n">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="V1" t="n">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" t="n">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="X1" t="n">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" t="n">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" t="n">
+      <c r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" t="n">
+      <c r="AA1">
         <v>26</v>
       </c>
-      <c r="AB1" t="n">
+      <c r="AB1">
         <v>27</v>
       </c>
-      <c r="AC1" t="n">
+      <c r="AC1">
         <v>28</v>
       </c>
-      <c r="AD1" t="n">
+      <c r="AD1">
         <v>29</v>
       </c>
-      <c r="AE1" t="n">
+      <c r="AE1">
         <v>30</v>
       </c>
-      <c r="AF1" t="n">
+      <c r="AF1">
         <v>31</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Umarjonov Ulug'bek</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">49257001: </t>
-        </is>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tulaboyev Zafar</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10414033: </t>
-        </is>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sabina Sobirovna</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2111796525:</t>
-        </is>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Quranboyev Jasur</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>328628941:</t>
-        </is>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sharifjon Mo`minov</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5172746353:</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Keldi: 15:11:32 Ketdi: 15:11:38</t>
-        </is>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>213</v>
+      </c>
+      <c r="D6">
+        <v>123123</v>
+      </c>
+      <c r="E6">
+        <v>123123</v>
+      </c>
+      <c r="F6">
+        <v>124</v>
+      </c>
+      <c r="G6">
+        <v>123125123</v>
+      </c>
+      <c r="H6">
+        <v>123</v>
+      </c>
+      <c r="I6">
+        <v>12313</v>
+      </c>
+      <c r="J6">
+        <v>1231</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Umarxonov Azamxon</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>856306959:</t>
-        </is>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Shanazarov Abdullo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>520754113:</t>
-        </is>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Habibullayev Axtam</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>524697244:</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Сматуллаев Ербол</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>322626456:</t>
-        </is>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" t="s">
+        <v>18</v>
+      </c>
+      <c r="X9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="24">
   <si>
     <t>Developers</t>
   </si>
@@ -27,21 +27,18 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>Umarjonov Ulug'bek</t>
-  </si>
-  <si>
     <t xml:space="preserve">49257001: </t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>Tulaboyev Zafar</t>
   </si>
   <si>
     <t xml:space="preserve">10414033: </t>
   </si>
   <si>
-    <t>Sabina Sobirovna</t>
-  </si>
-  <si>
     <t>2111796525:</t>
   </si>
   <si>
@@ -51,7 +48,7 @@
     <t>328628941:</t>
   </si>
   <si>
-    <t>Sharifjon Mo`minov</t>
+    <t>Keldi: 13:35:24 Ketdi: 13:35:37</t>
   </si>
   <si>
     <t>5172746353:</t>
@@ -69,26 +66,51 @@
     <t>524697244:</t>
   </si>
   <si>
-    <t>Сматуллаев Ербол</t>
-  </si>
-  <si>
     <t>322626456:</t>
   </si>
   <si>
-    <t>.</t>
+    <t>Smatullayev Erbol</t>
+  </si>
+  <si>
+    <t>Yo‘ldoshev Bobur</t>
+  </si>
+  <si>
+    <t>Sharifjon Mo‘minov</t>
+  </si>
+  <si>
+    <t>Maxmudova Durdona</t>
+  </si>
+  <si>
+    <t>Sobirova Sabina</t>
+  </si>
+  <si>
+    <t>Nazaraliyev Jahongir</t>
+  </si>
+  <si>
+    <t>1336680858:</t>
+  </si>
+  <si>
+    <t>1755017200:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,8 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -415,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,790 +553,987 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="V2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AD2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="V3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="X3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="V4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="X4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Z4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AD4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AC5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AD5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>213</v>
-      </c>
-      <c r="D6">
-        <v>123123</v>
-      </c>
-      <c r="E6">
-        <v>123123</v>
-      </c>
-      <c r="F6">
-        <v>124</v>
-      </c>
-      <c r="G6">
-        <v>123125123</v>
-      </c>
-      <c r="H6">
-        <v>123</v>
-      </c>
-      <c r="I6">
-        <v>12313</v>
-      </c>
-      <c r="J6">
-        <v>1231</v>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="V6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AD6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="V7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AC7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AD7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AF7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="V8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="X8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="X9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Z9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="23">
   <si>
     <t>Developers</t>
   </si>
@@ -27,67 +27,64 @@
     <t>user_id</t>
   </si>
   <si>
+    <t>Habibullayev Axtam</t>
+  </si>
+  <si>
+    <t>524697244:</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Quranboyev Jasur</t>
+  </si>
+  <si>
+    <t>328628941:</t>
+  </si>
+  <si>
+    <t>Sobirova Sabina</t>
+  </si>
+  <si>
+    <t>2111796525:</t>
+  </si>
+  <si>
+    <t>Shanazarov Abdullo</t>
+  </si>
+  <si>
+    <t>520754113:</t>
+  </si>
+  <si>
+    <t>Sharifjon Mo‘minov</t>
+  </si>
+  <si>
+    <t>5172746353:</t>
+  </si>
+  <si>
+    <t>Smatullayev Erbol</t>
+  </si>
+  <si>
+    <t>322626456:</t>
+  </si>
+  <si>
+    <t>Tulaboyev Zafar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10414033: </t>
+  </si>
+  <si>
+    <t>Yo‘ldoshev Bobur</t>
+  </si>
+  <si>
     <t xml:space="preserve">49257001: </t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Tulaboyev Zafar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10414033: </t>
-  </si>
-  <si>
-    <t>2111796525:</t>
-  </si>
-  <si>
-    <t>Quranboyev Jasur</t>
-  </si>
-  <si>
-    <t>328628941:</t>
-  </si>
-  <si>
-    <t>Keldi: 13:35:24 Ketdi: 13:35:37</t>
-  </si>
-  <si>
-    <t>5172746353:</t>
-  </si>
-  <si>
-    <t>Shanazarov Abdullo</t>
-  </si>
-  <si>
-    <t>520754113:</t>
-  </si>
-  <si>
-    <t>Habibullayev Axtam</t>
-  </si>
-  <si>
-    <t>524697244:</t>
-  </si>
-  <si>
-    <t>322626456:</t>
-  </si>
-  <si>
-    <t>Smatullayev Erbol</t>
-  </si>
-  <si>
-    <t>Yo‘ldoshev Bobur</t>
-  </si>
-  <si>
-    <t>Sharifjon Mo‘minov</t>
-  </si>
-  <si>
     <t>Maxmudova Durdona</t>
   </si>
   <si>
-    <t>Sobirova Sabina</t>
+    <t>1336680858:</t>
   </si>
   <si>
     <t>Nazaraliyev Jahongir</t>
-  </si>
-  <si>
-    <t>1336680858:</t>
   </si>
   <si>
     <t>1755017200:</t>
@@ -97,20 +94,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,13 +123,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -445,7 +430,7 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,1045 +480,1044 @@
         <v>11</v>
       </c>
       <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>24</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>25</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>26</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>27</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>28</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>29</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" t="s">
-        <v>3</v>
-      </c>
-      <c r="W10" t="s">
-        <v>3</v>
-      </c>
-      <c r="X10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="24">
   <si>
     <t>Developers</t>
   </si>
@@ -57,37 +57,40 @@
     <t>Sharifjon Mo‘minov</t>
   </si>
   <si>
+    <t>Keldi: 9:30 Ketdi: 17:05</t>
+  </si>
+  <si>
+    <t>Smatullayev Erbol</t>
+  </si>
+  <si>
+    <t>322626456:</t>
+  </si>
+  <si>
+    <t>Tulaboyev Zafar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10414033: </t>
+  </si>
+  <si>
+    <t>Yo‘ldoshev Bobur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49257001: </t>
+  </si>
+  <si>
+    <t>Maxmudova Durdona</t>
+  </si>
+  <si>
+    <t>1336680858:</t>
+  </si>
+  <si>
+    <t>Nazaraliyev Jahongir</t>
+  </si>
+  <si>
+    <t>1755017200:</t>
+  </si>
+  <si>
     <t>5172746353:</t>
-  </si>
-  <si>
-    <t>Smatullayev Erbol</t>
-  </si>
-  <si>
-    <t>322626456:</t>
-  </si>
-  <si>
-    <t>Tulaboyev Zafar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10414033: </t>
-  </si>
-  <si>
-    <t>Yo‘ldoshev Bobur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49257001: </t>
-  </si>
-  <si>
-    <t>Maxmudova Durdona</t>
-  </si>
-  <si>
-    <t>1336680858:</t>
-  </si>
-  <si>
-    <t>Nazaraliyev Jahongir</t>
-  </si>
-  <si>
-    <t>1755017200:</t>
   </si>
 </sst>
 </file>
@@ -427,19 +430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="32" width="28" customWidth="1"/>
+    <col min="2" max="33" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +539,11 @@
       <c r="AF1">
         <v>30</v>
       </c>
+      <c r="AG1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -634,8 +640,11 @@
       <c r="AF2" t="s">
         <v>4</v>
       </c>
+      <c r="AG2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -732,8 +741,11 @@
       <c r="AF3" t="s">
         <v>4</v>
       </c>
+      <c r="AG3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -830,8 +842,11 @@
       <c r="AF4" t="s">
         <v>4</v>
       </c>
+      <c r="AG4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -928,17 +943,20 @@
       <c r="AF5" t="s">
         <v>4</v>
       </c>
+      <c r="AG5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -1026,8 +1044,11 @@
       <c r="AF6" t="s">
         <v>4</v>
       </c>
+      <c r="AG6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1124,8 +1145,11 @@
       <c r="AF7" t="s">
         <v>4</v>
       </c>
+      <c r="AG7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1246,11 @@
       <c r="AF8" t="s">
         <v>4</v>
       </c>
+      <c r="AG8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1320,8 +1347,11 @@
       <c r="AF9" t="s">
         <v>4</v>
       </c>
+      <c r="AG9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1418,8 +1448,11 @@
       <c r="AF10" t="s">
         <v>4</v>
       </c>
+      <c r="AG10" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1514,6 +1547,9 @@
         <v>4</v>
       </c>
       <c r="AF11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG11" t="s">
         <v>4</v>
       </c>
     </row>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -751,7 +751,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Keldi: 9:25 Ketdi: 13:36:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>13:40:28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>13:32:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>13:30:20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>13:39:37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
